--- a/biology/Zoologie/Chinavia/Chinavia.xlsx
+++ b/biology/Zoologie/Chinavia/Chinavia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chinavia est un genre d'insectes du sous-ordre des hétéroptères (punaises) et de la famille des pentatomidés.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces du genre Chinavia sont des punaises généralement vertes mesurant entre 9 et 19 mm[1]. Très polyphages, certaines sont considérées comme des ravageurs des cultures, notamment Chinavia hilaris sur le soja[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces du genre Chinavia sont des punaises généralement vertes mesurant entre 9 et 19 mm. Très polyphages, certaines sont considérées comme des ravageurs des cultures, notamment Chinavia hilaris sur le soja.
 </t>
         </is>
       </c>
@@ -542,11 +556,48 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre a été décrit par l'entomologiste mauricien Alfred J. E. Orian en 1965. Il y inclut initialement neuf espèces africaines issues des genres Acrosternum et Nezara[3]. Le genre a été déclassé en sous-genre d'Acrosternum par Rolston en 1983 avant de retrouver son statut, notamment à la suite des travaux de Schwertner et Grazia[4],[5]. Il regroupe désormais 85 espèces[1] répartis dans les zones afrotropicale, néarctique et néotropicale[6].
-Liste des espèces
-Groupe geniculata[6]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre a été décrit par l'entomologiste mauricien Alfred J. E. Orian en 1965. Il y inclut initialement neuf espèces africaines issues des genres Acrosternum et Nezara. Le genre a été déclassé en sous-genre d'Acrosternum par Rolston en 1983 avant de retrouver son statut, notamment à la suite des travaux de Schwertner et Grazia,. Il regroupe désormais 85 espèces répartis dans les zones afrotropicale, néarctique et néotropicale.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Chinavia</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chinavia</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Groupe geniculata
 Chinavia cearensis Schwertner &amp; Grazia, 2006
 Chinavia erythrocnemis (Berg, 1879)
 Chinavia geniculata (Dallas, 1851)
@@ -561,7 +612,7 @@
 Chinavia sebastiaoi Schwertner &amp; Grazia, 2006
 Chinavia tuiucauna Schwertner &amp; Grazia, 2006
 Chinavia vanduzeei Schwertner &amp; Grazia, 2006
-Groupe obstinata[3]
+Groupe obstinata
 Chinavia difficilis (Stål, 1860)
 Chinavia napaea (Stål, 1872)
 Chinavia obstinata (Stål, 1860)
